--- a/cobrador.xlsx
+++ b/cobrador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Desktop\Desenvolvimentos\Python\data science\comparador de preço\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B2598-053A-4032-8BCC-6B41AA7FC9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407827A2-95C7-4FC3-8492-13B4C34F0B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9287B1B-8FF8-47F0-8EEB-C2140EBFD9E9}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Caio Haensel Feijó</t>
-  </si>
-  <si>
-    <t>Cid Roberto Pereira Coelho</t>
-  </si>
-  <si>
-    <t>Edna da Conceição Costa C. Escanilha</t>
-  </si>
-  <si>
-    <t>Marly de Veiga Cabral Campos</t>
+    <t>Daniel Alves</t>
+  </si>
+  <si>
+    <t>Mariana da Silva</t>
+  </si>
+  <si>
+    <t>Roberto Torres</t>
+  </si>
+  <si>
+    <t>Antônio Fagundes</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3666</v>
+        <v>3266</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5683</v>
+        <v>5633</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -497,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>6830</v>
+        <v>6820</v>
       </c>
       <c r="C5">
         <v>15</v>

--- a/cobrador.xlsx
+++ b/cobrador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Desktop\Desenvolvimentos\Python\data science\comparador de preço\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407827A2-95C7-4FC3-8492-13B4C34F0B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE61CFB-98B1-4BC4-8A97-FF4565C31E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9287B1B-8FF8-47F0-8EEB-C2140EBFD9E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49BB555B-9A13-475D-A2C5-CE7C4C82EFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
   <si>
     <t>NOME PACIENTE</t>
   </si>
@@ -40,32 +40,71 @@
     <t>CODIGO PACIENTE</t>
   </si>
   <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>PERIODICIDADE</t>
+  </si>
+  <si>
+    <t>CATEGORIA PROFISSIONAL</t>
+  </si>
+  <si>
     <t>QTDE TOTAL ATENDIMENTOS</t>
   </si>
   <si>
     <t>VALOR SESSÃO</t>
   </si>
   <si>
+    <t>GLOSAS</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Daniel Alves</t>
-  </si>
-  <si>
-    <t>Mariana da Silva</t>
-  </si>
-  <si>
-    <t>Roberto Torres</t>
-  </si>
-  <si>
-    <t>Antônio Fagundes</t>
+    <t>ALICE KIMICIAK BASTOS</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>SEMANAL</t>
+  </si>
+  <si>
+    <t>FISIOTERAPEUTA</t>
+  </si>
+  <si>
+    <t>EDUARDO COSTA REIS KUPFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARAH DA SILVA PINTO BRAGANÇA       </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>SARAH DA SILVA PINTO BRAGANÇA (RTA)</t>
+  </si>
+  <si>
+    <t>SARAH DA SILVA PINTO BRAGANÇA  (BOBATH)</t>
+  </si>
+  <si>
+    <t>Marcelin Brito</t>
+  </si>
+  <si>
+    <t>Marli da Silva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +112,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,15 +188,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{B3A5920B-D8F7-47C9-90F6-92EB68C3A5A5}"/>
+    <cellStyle name="Moeda 2" xfId="3" xr:uid="{B0DCEB05-AF6C-4882-8A8F-12BBDAFA8040}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{A3AA204E-F329-4039-B991-EA3045DB4074}"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,104 +566,915 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C61F23-E6D0-4299-BB35-761BD774AA10}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D209FE9-7310-48D6-8214-805A69B5EB79}">
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="6">
+        <v>44470</v>
+      </c>
+      <c r="G1" s="6">
+        <v>44471</v>
+      </c>
+      <c r="H1" s="6">
+        <v>44472</v>
+      </c>
+      <c r="I1" s="6">
+        <v>44473</v>
+      </c>
+      <c r="J1" s="6">
+        <v>44474</v>
+      </c>
+      <c r="K1" s="6">
+        <v>44475</v>
+      </c>
+      <c r="L1" s="6">
+        <v>44476</v>
+      </c>
+      <c r="M1" s="6">
+        <v>44477</v>
+      </c>
+      <c r="N1" s="6">
+        <v>44478</v>
+      </c>
+      <c r="O1" s="6">
+        <v>44479</v>
+      </c>
+      <c r="P1" s="6">
+        <v>44480</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>44481</v>
+      </c>
+      <c r="R1" s="6">
+        <v>44482</v>
+      </c>
+      <c r="S1" s="6">
+        <v>44483</v>
+      </c>
+      <c r="T1" s="6">
+        <v>44484</v>
+      </c>
+      <c r="U1" s="6">
+        <v>44485</v>
+      </c>
+      <c r="V1" s="6">
+        <v>44486</v>
+      </c>
+      <c r="W1" s="6">
+        <v>44487</v>
+      </c>
+      <c r="X1" s="6">
+        <v>44488</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>44489</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>44490</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>44491</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>44492</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>44493</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>44494</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>44495</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>44496</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>44497</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>44498</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>44499</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>44500</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3266</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>350</v>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>42</v>
+      </c>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5">
+        <v>1302</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>6766</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>624</v>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>31</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5">
+        <v>1302</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5633</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>59</v>
-      </c>
-      <c r="E4">
-        <v>472</v>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>20</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>42</v>
+      </c>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5">
+        <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6820</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>48</v>
-      </c>
-      <c r="E5">
-        <v>720</v>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>216</v>
+      </c>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>180</v>
+      </c>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>180</v>
+      </c>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>180</v>
+      </c>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5">
+        <v>3780</v>
       </c>
     </row>
   </sheetData>
